--- a/biology/Histoire de la zoologie et de la botanique/Massimo_Olmi/Massimo_Olmi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Massimo_Olmi/Massimo_Olmi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Massimo Olmi (né le 13 octobre 1942 à Pistoia, en Toscane) est un entomologiste italien, spécialiste de la famille Dryinidae des hyménoptères et professeur d'entomologie à l'Université de la Tuscia. Il a écrit 8 livres où il décrit et parle de la biologie des dryinides du monde.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Massimo Olmi a découvert plusieurs dizaines de nouvelles espèces dans cette famille, décrites au long d'une centaine de livres et articles, couvrant plus de trente ans de carrière.
-En 2003, le paléontologue Michael S. Engel découvre une nouvelle espèce de Dryinidae qu'il dédie à Massimo Olmi : Burmanteon olmii[1].
+En 2003, le paléontologue Michael S. Engel découvre une nouvelle espèce de Dryinidae qu'il dédie à Massimo Olmi : Burmanteon olmii.
 </t>
         </is>
       </c>
